--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261832.123780183</v>
+        <v>2337361.793444987</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>70.85798179845266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.8921573515706</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>117.1365314849862</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.67884460201108</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>272.1790311887223</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>13.16208281464381</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>80.50025882551931</v>
+        <v>70.16758029820805</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>32.97544786985904</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.62682971309778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.82953530753703</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>173.7369687963018</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>112.9041675380128</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>93.42427375091977</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.72448311034772</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>12.34935715613855</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>102.5440900052613</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>184.6017293039179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.5564883283892</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>167.0890595758136</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>64.99476831707666</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.6910420404454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.6672894835459</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>195.7632657493783</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>26.74904583214625</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>34.01685314598966</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>25.08469868750415</v>
+        <v>257.2647813244619</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.51808258596496</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>32.89657674138226</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1280.556556803303</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1280.556556803303</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>922.2908581965523</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>536.502605598308</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>125.5167008087005</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>65.73979454966857</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.73979454966857</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404537</v>
+        <v>1435.441956461045</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464125</v>
+        <v>1435.441956461045</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>1435.441956461045</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591307</v>
+        <v>1049.6537038628</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>638.6677990731928</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>220.7039909713797</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404537</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404537</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.6060931634762</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V7" t="n">
-        <v>617.3986723070063</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W7" t="n">
-        <v>617.3986723070063</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>617.3986723070063</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.6060931634762</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>2091.914583926164</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1364.686368379002</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>978.8981157807573</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>567.9122109911498</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533148</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733134</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988821</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727741</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>2478.514423990286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>698.712065060056</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U10" t="n">
-        <v>698.712065060056</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541692</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541692</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.4370268152256</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889955</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.0854916454654</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,13 +5269,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5288,19 +5290,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>451.8206843311503</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>451.8206843311503</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5469,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,10 +5518,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984813</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1395.336381663699</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1395.336381663699</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1395.336381663699</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.919211626738</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>877.929660728721</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.929660728721</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5777,10 +5779,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1201.374773883447</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.374773883447</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1201.374773883447</v>
+        <v>1072.20753246115</v>
       </c>
       <c r="V22" t="n">
-        <v>946.6902856775603</v>
+        <v>817.5230442552627</v>
       </c>
       <c r="W22" t="n">
-        <v>657.2731156405996</v>
+        <v>528.105874218302</v>
       </c>
       <c r="X22" t="n">
-        <v>429.2835647425823</v>
+        <v>528.105874218302</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,31 +6004,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,10 +6211,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>313.2863810407028</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>162.8683725886461</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.954803866944</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5376338299834</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5480829319661</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>481.4617027208823</v>
       </c>
     </row>
     <row r="29">
@@ -6476,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4168.996359003562</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C31" t="n">
-        <v>4000.060176075655</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D31" t="n">
-        <v>4000.060176075655</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E31" t="n">
-        <v>4000.060176075655</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F31" t="n">
-        <v>3853.170228577745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3684.994906897566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3534.576898445509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.437402977332</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>4571.437402977332</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y31" t="n">
-        <v>4350.644823833802</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,34 +6694,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>3946.684906976818</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4128.333371807057</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4128.333371807057</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>4128.333371807057</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>4128.333371807057</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>4128.333371807057</v>
       </c>
     </row>
     <row r="35">
@@ -6950,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,34 +7189,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>920.7426858423523</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>692.753134944335</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>692.753134944335</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3867.997941244694</v>
+        <v>4091.069939605065</v>
       </c>
       <c r="C43" t="n">
-        <v>3867.997941244694</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D43" t="n">
-        <v>3867.997941244694</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E43" t="n">
-        <v>3867.997941244694</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746784</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
         <v>4411.546387431056</v>
@@ -7594,25 +7596,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727022</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W43" t="n">
-        <v>3867.997941244694</v>
+        <v>4311.862518748596</v>
       </c>
       <c r="X43" t="n">
-        <v>3867.997941244694</v>
+        <v>4311.862518748596</v>
       </c>
       <c r="Y43" t="n">
-        <v>3867.997941244694</v>
+        <v>4091.069939605065</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7710,37 +7712,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2811958984813</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S46" t="n">
-        <v>1326.711790770268</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T46" t="n">
-        <v>1326.711790770268</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.711790770268</v>
+        <v>786.0822064765214</v>
       </c>
       <c r="V46" t="n">
-        <v>1326.711790770268</v>
+        <v>531.3977182706345</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.711790770268</v>
+        <v>241.9805482336739</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.722239872251</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.929660728721</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>54.34265356061505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.06929471245782</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>74.76908535302987</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>154.8974639424893</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>119.0034710531279</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.31908067968533</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>171.6808640701881</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>85.04858374801441</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>45.4244771471953</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>118.4466012833826</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.105225817279319</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>35.75195598072608</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>90.47408664919905</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>153.0829343497911</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>252.5061451906013</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>261.4382996490868</v>
+        <v>29.25821701212914</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
-        <v>137.4027273976383</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.8130786476549</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.8367399914423e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="H4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773385</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834773</v>
+        <v>-260920.3609834771</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310672</v>
+        <v>329047.5182310674</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310677</v>
+        <v>329047.5182310674</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366871</v>
+        <v>-86587.70932366919</v>
       </c>
       <c r="F6" t="n">
-        <v>438572.3271532272</v>
+        <v>438572.3271532271</v>
       </c>
       <c r="G6" t="n">
         <v>438572.3271532271</v>
       </c>
       <c r="H6" t="n">
-        <v>438572.3271532274</v>
+        <v>438572.3271532269</v>
       </c>
       <c r="I6" t="n">
-        <v>438572.3271532274</v>
+        <v>438572.3271532278</v>
       </c>
       <c r="J6" t="n">
-        <v>262149.1079606346</v>
+        <v>262149.1079606342</v>
       </c>
       <c r="K6" t="n">
-        <v>438572.3271532272</v>
+        <v>438572.3271532273</v>
       </c>
       <c r="L6" t="n">
-        <v>438572.3271532276</v>
+        <v>438572.3271532273</v>
       </c>
       <c r="M6" t="n">
-        <v>303771.3119193899</v>
+        <v>303771.3119193903</v>
       </c>
       <c r="N6" t="n">
-        <v>438572.3271532274</v>
+        <v>438572.3271532273</v>
       </c>
       <c r="O6" t="n">
         <v>438572.3271532275</v>
       </c>
       <c r="P6" t="n">
-        <v>438572.3271532274</v>
+        <v>438572.3271532264</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9261882223423</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>167.3488113658424</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>62.69544869695106</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4920442397841</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>134.6970145529891</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>310.7606899497134</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>171.6373844983087</v>
+        <v>181.9700630256199</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>380.808722150936</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>320.6111089429558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>202.4523389344407</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>51.97268659273536</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>201.2020579973758</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2337361.793444987</v>
+        <v>2330344.778553277</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9821547.104690997</v>
+        <v>9821547.104690999</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>93.18915623846755</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>181.8921573515706</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.1365314849862</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>55.61478235598332</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>13.16208281464381</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>70.26858495612836</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>70.16758029820805</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>32.97544786985904</v>
+        <v>19.76755821211439</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.82953530753703</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.42427375091977</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.72448311034772</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>12.34935715613855</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>114.5564883283892</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>167.0890595758136</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>268.3561440099139</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>64.99476831707666</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>195.7632657493783</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>176.8688121773846</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.74904583214625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.01685314598966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>257.2647813244619</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>32.89657674138226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>893.2319707331117</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>475.2681626312985</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>148.0734426673014</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.515907621104</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1435.441956461045</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1435.441956461045</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>1435.441956461045</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E5" t="n">
-        <v>1049.6537038628</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="F5" t="n">
-        <v>638.6677990731928</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>220.7039909713797</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500978</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1822.041796525166</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2091.914583926164</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.952066985752</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1364.686368379002</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>978.8981157807573</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>567.9122109911498</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533148</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733134</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990286</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990286</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2478.514423990286</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>286.532373693199</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5126,22 +5126,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220957</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>451.8206843311503</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>451.8206843311503</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,10 +5509,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5521,28 +5521,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.6108700904388</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273993</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904388</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904388</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.6108700904388</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1072.20753246115</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>817.5230442552627</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>528.105874218302</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>528.105874218302</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1130.219432619097</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>840.8022625821368</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X25" t="n">
-        <v>612.8127116841194</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405893</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6214,46 +6214,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>481.4617027208823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>313.2863810407028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>162.8683725886461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247865</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188996</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>709.4512536188996</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>481.4617027208823</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.4617027208823</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3946.684906976818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4128.333371807057</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4128.333371807057</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W34" t="n">
-        <v>4128.333371807057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
-        <v>4128.333371807057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>4128.333371807057</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6931,52 +6931,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>754.8946022306075</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>754.8946022306075</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.1020230870773</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655742</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>920.7426858423523</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>692.753134944335</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4091.069939605065</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>4571.72593422785</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>4311.862518748596</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>4311.862518748596</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>4091.069939605065</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7712,43 +7712,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262963</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765214</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706345</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336739</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X46" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383383</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>50.62661940943661</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.06929471245782</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>74.76908535302987</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>154.8974639424893</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>171.6808640701881</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>85.04858374801441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>18.16685432667714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>45.4244771471953</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>2.105225817279319</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>90.47408664919905</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>75.2688311464434</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.0829343497911</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>252.5061451906013</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.25821701212914</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.8130786476549</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196783</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.8367399914423e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773393</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773385</v>
+        <v>36432.48351773397</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834771</v>
+        <v>-260920.3609834773</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310674</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310674</v>
+        <v>329047.5182310675</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366919</v>
+        <v>-87562.30058339013</v>
       </c>
       <c r="F6" t="n">
-        <v>438572.3271532271</v>
+        <v>437597.7358935054</v>
       </c>
       <c r="G6" t="n">
-        <v>438572.3271532271</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="H6" t="n">
-        <v>438572.3271532269</v>
+        <v>437597.7358935057</v>
       </c>
       <c r="I6" t="n">
-        <v>438572.3271532278</v>
+        <v>437597.735893506</v>
       </c>
       <c r="J6" t="n">
-        <v>262149.1079606342</v>
+        <v>261174.5167009129</v>
       </c>
       <c r="K6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935055</v>
       </c>
       <c r="L6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935053</v>
       </c>
       <c r="M6" t="n">
-        <v>303771.3119193903</v>
+        <v>302796.7206596683</v>
       </c>
       <c r="N6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935055</v>
       </c>
       <c r="O6" t="n">
-        <v>438572.3271532275</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="P6" t="n">
-        <v>438572.3271532264</v>
+        <v>437597.7358935054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>58.7421600063937</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>167.3488113658424</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.69544869695106</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>351.2612633857281</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>310.7606899497134</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>78.34688806208399</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>181.9700630256199</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>380.808722150936</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>202.4523389344407</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,22 +31284,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31308,19 +31308,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31478,7 +31478,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770693</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>201.2020579973758</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2330344.778553277</v>
+        <v>2335284.041402309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9821547.104690999</v>
+        <v>9821547.104691001</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>93.18915623846755</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.61478235598332</v>
+        <v>10.29782397666626</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.26858495612836</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>330.6978214631571</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>19.76755821211439</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343914019</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.2064594147028</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>268.3561440099139</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>101.5008511078726</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>176.8688121773846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.85505776148874</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>176.8688121773847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="44">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1304.217875522719</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>893.2319707331117</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>475.2681626312985</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>148.0734426673014</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551155</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4549,13 +4549,13 @@
         <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>604.7036296850076</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E5" t="n">
-        <v>604.7036296850076</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4649,16 +4649,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>318.4909684781771</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1567.641263708176</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1198.678746767764</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>97.69838933464749</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084173</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>279.3468541648872</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5226,7 +5226,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
         <v>1090.100879744681</v>
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>739.1390269937325</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6183,16 +6183,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>714.9354044297403</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>486.9458535317229</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6466,31 +6466,31 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028587</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7168,52 +7168,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1306.350032969985</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.221394183544</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>762.5369059776569</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>473.1197359406963</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>6.625520767234491</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>18.16685432667714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>124.2088042811645</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.2688311464434</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>166.9769224204485</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="10">
@@ -26322,40 +26322,40 @@
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196783</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196777</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="K2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196775</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.483517734</v>
+      </c>
+      <c r="H4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773397</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26450,7 +26450,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834773</v>
+        <v>-260920.3609834772</v>
       </c>
       <c r="C6" t="n">
         <v>329047.5182310672</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310675</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="E6" t="n">
-        <v>-87562.30058339013</v>
+        <v>-86685.1684496403</v>
       </c>
       <c r="F6" t="n">
-        <v>437597.7358935054</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="G6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="H6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="I6" t="n">
-        <v>437597.735893506</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="J6" t="n">
-        <v>261174.5167009129</v>
+        <v>262051.648834662</v>
       </c>
       <c r="K6" t="n">
-        <v>437597.7358935055</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="L6" t="n">
-        <v>437597.7358935053</v>
+        <v>438474.8680272548</v>
       </c>
       <c r="M6" t="n">
-        <v>302796.7206596683</v>
+        <v>303673.8527934182</v>
       </c>
       <c r="N6" t="n">
-        <v>437597.7358935055</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="O6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272555</v>
       </c>
       <c r="P6" t="n">
-        <v>437597.7358935054</v>
+        <v>438474.8680272552</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.7421600063937</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.80735538553375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.2612633857281</v>
+        <v>396.5782217650452</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>78.34688806208399</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>27.18419673850229</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>23.98522015752587</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>394.0166118086806</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594877</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.86613090076546e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
